--- a/testsheet.xlsx
+++ b/testsheet.xlsx
@@ -1,63 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Zhou\Box Sync\DUKE\Psych\Huettel Lab\videoapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Zhou\Box Sync\DUKE\Psych\Huettel Lab\veggie-table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86DBBC5-A783-405E-A578-C0B8B4FA8D81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D350D92D-81BD-407D-90EF-55B03A782C63}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17325" xr2:uid="{015BD2C5-3653-4EE7-83A9-480AB487DE99}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Subject Number</t>
-  </si>
-  <si>
-    <t>Video Link</t>
-  </si>
-  <si>
-    <t>sample.mkv</t>
-  </si>
-  <si>
-    <t>sample2.mkv</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+  <si>
+    <t>subID</t>
+  </si>
+  <si>
+    <t>video_link</t>
+  </si>
+  <si>
+    <t>food_text_sweet</t>
+  </si>
+  <si>
+    <t>chewybar</t>
+  </si>
+  <si>
+    <t>food_text_salt</t>
+  </si>
+  <si>
+    <t>doritos</t>
+  </si>
+  <si>
+    <t>sweet_loc_left</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>block_text</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>trial_num</t>
+  </si>
+  <si>
+    <t>reward_feedback_on</t>
+  </si>
+  <si>
+    <t>feedback_state</t>
+  </si>
+  <si>
+    <t>feedback_state_color</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>trial_win</t>
+  </si>
+  <si>
+    <t>video.mp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,7 +110,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -77,16 +126,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,50 +448,472 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5013194D-7964-49B3-93F4-21DE531A6BBC}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
-        <v>1</v>
+        <v>996</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1219</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
-        <v>2</v>
+        <v>996</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1426</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>996</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1635</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>996</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1851</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>996</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2057</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>996</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3015</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>996</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3223</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>996</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3436</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>996</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3656</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>996</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3881</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="C:\Users\Kelvin Zhou\Box Sync\DUKE\Psych\Huettel Lab\videoapp\sample.mkv" xr:uid="{223FCA01-E252-494F-A931-DEB0A6AEFFA6}"/>
-    <hyperlink ref="B3" r:id="rId2" display="C:\Users\Kelvin Zhou\Box Sync\DUKE\Psych\Huettel Lab\videoapp\sample2.mkv" xr:uid="{F85126E7-D4F5-48C2-9665-84685373787E}"/>
-  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testsheet.xlsx
+++ b/testsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Zhou\Box Sync\DUKE\Psych\Huettel Lab\veggie-table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D350D92D-81BD-407D-90EF-55B03A782C63}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF6E811-1164-46DA-B3EA-4FDD8C1E6B59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/testsheet.xlsx
+++ b/testsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Zhou\Box Sync\DUKE\Psych\Huettel Lab\veggie-table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF6E811-1164-46DA-B3EA-4FDD8C1E6B59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE3876-F24A-41B0-9D03-04771BAFF785}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/testsheet.xlsx
+++ b/testsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Zhou\Box Sync\DUKE\Psych\Huettel Lab\veggie-table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE3876-F24A-41B0-9D03-04771BAFF785}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B885B0-9CE7-4A0C-AA30-E6289B5FFBB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="31995" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
   <si>
     <t>subID</t>
   </si>
@@ -33,22 +33,22 @@
     <t>food_text_sweet</t>
   </si>
   <si>
-    <t>chewybar</t>
+    <t>skittles</t>
   </si>
   <si>
     <t>food_text_salt</t>
   </si>
   <si>
-    <t>doritos</t>
+    <t>fritos</t>
   </si>
   <si>
     <t>sweet_loc_left</t>
   </si>
   <si>
-    <t>block_num</t>
-  </si>
-  <si>
-    <t>block_text</t>
+    <t>block_index</t>
+  </si>
+  <si>
+    <t>block_name</t>
   </si>
   <si>
     <t>Money</t>
@@ -69,37 +69,35 @@
     <t>feedback_state_color</t>
   </si>
   <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>purple</t>
+    <t>green</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>red</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>trial_win</t>
   </si>
   <si>
-    <t>video.mp4</t>
+    <t>video2.mp4</t>
+  </si>
+  <si>
+    <t>video1.mp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,12 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,22 +444,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="118.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
@@ -510,7 +505,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>996</v>
+        <v>8889</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
@@ -522,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -533,22 +528,22 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
-        <v>1219</v>
+      <c r="I2">
+        <v>141</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>996</v>
+        <v>8889</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
@@ -560,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -571,11 +566,11 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
-        <v>1426</v>
+      <c r="I3">
+        <v>406</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>16</v>
@@ -586,7 +581,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>996</v>
+        <v>8889</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
@@ -598,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -609,22 +604,22 @@
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" s="2">
-        <v>1635</v>
+      <c r="I4">
+        <v>692</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>996</v>
+        <v>8889</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -636,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -647,22 +642,22 @@
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" s="2">
-        <v>1851</v>
+      <c r="I5">
+        <v>972</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>996</v>
+        <v>8889</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -674,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -685,14 +680,14 @@
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
-        <v>2057</v>
+      <c r="I6">
+        <v>1249</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -700,7 +695,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>996</v>
+        <v>8889</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -712,25 +707,25 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
-      <c r="I7" s="2">
-        <v>3015</v>
+      <c r="I7">
+        <v>1526</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -738,7 +733,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>996</v>
+        <v>8889</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -750,33 +745,33 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
-      <c r="I8" s="2">
-        <v>3223</v>
+      <c r="I8">
+        <v>1812</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>996</v>
+        <v>8889</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -788,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
-      <c r="I9" s="2">
-        <v>3436</v>
+      <c r="I9">
+        <v>2060</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -814,7 +809,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>996</v>
+        <v>8889</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -826,33 +821,33 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
-      <c r="I10" s="2">
-        <v>3656</v>
+      <c r="I10">
+        <v>2375</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>996</v>
+        <v>8889</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -864,33 +859,412 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11" s="2">
-        <v>3881</v>
+      <c r="I11">
+        <v>2676</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>8889</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>144</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L11">
-        <v>1</v>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>8889</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>428</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>8889</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>782</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>8889</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>1067</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>8889</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>1379</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>8889</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>1661</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>8889</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>1975</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>8889</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>2252</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>8889</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>2602</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>8889</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>2887</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -900,7 +1274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -912,7 +1286,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
